--- a/ig/publication-release-0-2-0/all-profiles.xlsx
+++ b/ig/publication-release-0-2-0/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T17:05:12+00:00</t>
+    <t>2023-10-20T07:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/publication-release-0-2-0/all-profiles.xlsx
+++ b/ig/publication-release-0-2-0/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T07:27:21+00:00</t>
+    <t>2023-10-20T08:58:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
